--- a/classfiers/greedy/welm/smote/greedy_welm_tanh_smote_results.xlsx
+++ b/classfiers/greedy/welm/smote/greedy_welm_tanh_smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.741304347826087</v>
+        <v>0.8066825775656324</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6952789699570815</v>
+        <v>0.8543689320388349</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7313769751693002</v>
+        <v>0.8129330254041571</v>
       </c>
       <c r="E2" t="n">
-        <v>0.839311035904029</v>
+        <v>0.8950499111171886</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5782608695652174</v>
+        <v>0.7255369928400954</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1585903083700441</v>
+        <v>0.6634615384615384</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2706766917293233</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5802121343895937</v>
+        <v>0.7910818446955888</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8239130434782609</v>
+        <v>0.7159904534606205</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9531914893617022</v>
+        <v>0.46875</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8468809073724007</v>
+        <v>0.6020066889632107</v>
       </c>
       <c r="E4" t="n">
-        <v>0.813049645390071</v>
+        <v>0.8758718795888399</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5369565217391304</v>
+        <v>0.6133651551312649</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8260869565217391</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6408094435075886</v>
+        <v>0.7197231833910035</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4894517958412098</v>
+        <v>0.620784724753919</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6543478260869565</v>
+        <v>0.6148325358851675</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6088888888888889</v>
+        <v>0.8068669527896996</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6327944572748269</v>
+        <v>0.7001862197392923</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6739290780141844</v>
+        <v>0.6226075861268994</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6669565217391304</v>
+        <v>0.6952815429765562</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6484073226198912</v>
+        <v>0.7586894846580146</v>
       </c>
       <c r="D7" t="n">
-        <v>0.624507695010688</v>
+        <v>0.708146294087768</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6791907379078175</v>
+        <v>0.7610791892564872</v>
       </c>
     </row>
   </sheetData>
